--- a/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
+++ b/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,25 +710,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>22.72</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
+++ b/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
+++ b/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000973</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华增盈回报债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
+++ b/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
+++ b/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.72</v>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.87</v>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.47</v>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1707,13 +1794,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
+++ b/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2863,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,17 +2875,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2894,14 +2915,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.1</v>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2910,14 +2953,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.72</v>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2926,14 +2991,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.87</v>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2942,14 +3029,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.47</v>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2958,13 +3067,1041 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
+++ b/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3984,7 +3985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3995,17 +3996,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4015,14 +4036,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.19</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4031,14 +4074,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.1</v>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4047,14 +4112,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.72</v>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4063,14 +4150,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.87</v>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4079,14 +4188,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.47</v>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4095,13 +4226,1399 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
+++ b/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
-        <v>6.67</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>3.19</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>5.1</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>1.72</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.47</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -600,6 +617,4200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6952</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6753</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6554</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3721</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2967</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013461</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013462</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011786</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银聚安混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013368</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013367</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015641</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华数字经济股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>015642</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银华数字经济股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011787</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银聚安混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2099,7 +6310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3219,7 +7430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4446,404 +8657,6 @@
       </c>
       <c r="H32" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3730</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3341</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>360005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>光大保德信红利混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2013</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000973</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新华增盈回报债券</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2005</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1740</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>31.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1465</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002472</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大保德信先进服务业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1454</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1226</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4908,36 +8721,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.22</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6439</t>
+          <t>0.3730</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4946,36 +8759,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3328</t>
+          <t>0.3341</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4984,36 +8797,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>360005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>光大保德信红利混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2712</t>
+          <t>0.2013</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5022,36 +8835,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>000973</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>新华增盈回报债券</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>23.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>22.41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2373</t>
+          <t>0.2005</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5060,36 +8873,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.11</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1354</t>
+          <t>0.1740</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5098,36 +8911,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>31.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0925</t>
+          <t>0.1465</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -5136,36 +8949,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011649</t>
+          <t>002472</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合A</t>
+          <t>光大保德信先进服务业灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>82.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0776</t>
+          <t>0.1454</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -5184,26 +8997,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>0.1226</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -5212,36 +9025,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011650</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合C</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>82.33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0241</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5250,6 +9063,404 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5419,7 +9630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
+++ b/数据整理/stocks/A股/创业板/300416-苏试试验.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>16.92</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D3" t="n">
-        <v>6.67</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>3.19</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>5.1</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>1.72</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.47</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -616,7 +633,4183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4919</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4341</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013461</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013367</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>65.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013462</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015217</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏扬成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013368</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>65.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015218</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏扬成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4810,7 +9003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6310,7 +10503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7430,7 +11623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8657,404 +12850,6 @@
       </c>
       <c r="H32" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3730</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3341</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>360005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>光大保德信红利混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2013</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000973</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新华增盈回报债券</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2005</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1740</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>31.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1465</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002472</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大保德信先进服务业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1454</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1226</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9119,36 +12914,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.22</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6439</t>
+          <t>0.3730</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -9157,36 +12952,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3328</t>
+          <t>0.3341</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9195,36 +12990,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>360005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>光大保德信红利混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2712</t>
+          <t>0.2013</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9233,36 +13028,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>000973</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>新华增盈回报债券</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>23.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>22.41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2373</t>
+          <t>0.2005</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -9271,36 +13066,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.11</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1354</t>
+          <t>0.1740</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -9309,36 +13104,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>31.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0925</t>
+          <t>0.1465</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -9347,36 +13142,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011649</t>
+          <t>002472</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合A</t>
+          <t>光大保德信先进服务业灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>82.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0776</t>
+          <t>0.1454</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -9395,26 +13190,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>0.1226</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -9423,36 +13218,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011650</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合C</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>82.33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0241</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9461,6 +13256,404 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9628,212 +13821,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2133</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1799</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0671</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>